--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>215120.9204730573</v>
+        <v>213233.3389566554</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>14.60539256045801</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>166.1112503860516</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -795,7 +795,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494245</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>126.9368849988963</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>234.7489220211235</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>153.8564357574052</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>12.62825841548294</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>9.275596830496628</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1136,16 +1136,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>375.6795298432833</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>226.9393716634061</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>89.06613335611762</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>248.0596779397532</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18.17523120827585</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675375</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>192.3228038217181</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>91.04645315989215</v>
+        <v>126.5538980153446</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>11.77373557727621</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>203.8435192151916</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2254,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>207.9296784859479</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.4787752061469632</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>143.3158222056513</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>143.3158222056516</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>9.011549247898355</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>93.41221638965521</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>90.2177913943741</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>93.71057173897898</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571487</v>
+        <v>55.21598883571486</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523569</v>
+        <v>54.76109577523567</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550461</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>91.97969161072146</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>93.5971748958811</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789509</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3484,7 +3484,7 @@
         <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373688</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689366</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941873</v>
@@ -3961,7 +3961,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y43" t="n">
         <v>150.4527632224541</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857165</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373688</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4198,7 +4198,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
         <v>150.4527632224541</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1353.10866026757</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="C2" t="n">
-        <v>1353.10866026757</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="D2" t="n">
-        <v>1353.10866026757</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="E2" t="n">
-        <v>967.3204076693255</v>
+        <v>632.7180284140645</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>221.732123624457</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="W2" t="n">
-        <v>2113.174258592771</v>
+        <v>1782.1113712492</v>
       </c>
       <c r="X2" t="n">
-        <v>1739.708500331692</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y2" t="n">
-        <v>1739.708500331692</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4443,7 +4443,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.027325963587</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C4" t="n">
-        <v>184.027325963587</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D4" t="n">
-        <v>184.027325963587</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>184.027325963587</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>184.027325963587</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>184.027325963587</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.027325963587</v>
+        <v>371.9203575519559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1540.97540443929</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C5" t="n">
-        <v>1540.97540443929</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D5" t="n">
-        <v>1182.70970583254</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>1182.70970583254</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>771.7238010429321</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2267.209817970484</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>1914.44116270037</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="X5" t="n">
-        <v>1540.97540443929</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="Y5" t="n">
-        <v>1540.97540443929</v>
+        <v>2323.103882821189</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4650,10 +4650,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>685.9562484787605</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>517.0200655508536</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>517.0200655508536</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>517.0200655508536</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>517.0200655508536</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>685.9562484787605</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>685.9562484787605</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U7" t="n">
-        <v>685.9562484787605</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="V7" t="n">
-        <v>685.9562484787605</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W7" t="n">
-        <v>685.9562484787605</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X7" t="n">
-        <v>685.9562484787605</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>685.9562484787605</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1529.2861479534</v>
+        <v>2134.371763268271</v>
       </c>
       <c r="C8" t="n">
-        <v>1160.323631012988</v>
+        <v>1765.409246327859</v>
       </c>
       <c r="D8" t="n">
-        <v>1160.323631012988</v>
+        <v>1407.143547721108</v>
       </c>
       <c r="E8" t="n">
-        <v>774.5353784147437</v>
+        <v>1021.355295122864</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>610.3693903332567</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X8" t="n">
-        <v>1915.885988017521</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="Y8" t="n">
-        <v>1915.885988017521</v>
+        <v>2520.971603332393</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="U10" t="n">
-        <v>477.5636529541582</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="V10" t="n">
-        <v>222.8791647482714</v>
+        <v>638.1631929376285</v>
       </c>
       <c r="W10" t="n">
-        <v>222.8791647482714</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X10" t="n">
-        <v>222.8791647482714</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1818.397748747283</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2338.69837048303</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542.4381409926474</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C13" t="n">
-        <v>542.4381409926474</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D13" t="n">
-        <v>542.4381409926474</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102543</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123439</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123439</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5197,22 +5197,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1304.650812152126</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473454</v>
+        <v>1080.865396941632</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473454</v>
+        <v>791.73675815519</v>
       </c>
       <c r="V13" t="n">
-        <v>1298.996260473454</v>
+        <v>537.0522699493032</v>
       </c>
       <c r="W13" t="n">
-        <v>1009.579090436494</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="X13" t="n">
-        <v>781.5895395384764</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y13" t="n">
-        <v>560.7969603949463</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="14">
@@ -5258,25 +5258,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5294,16 +5294,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5352,7 +5352,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>506.0324822735073</v>
+        <v>372.9624052601988</v>
       </c>
       <c r="C16" t="n">
-        <v>337.0962993456004</v>
+        <v>372.9624052601988</v>
       </c>
       <c r="D16" t="n">
         <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799364</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150548</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X16" t="n">
-        <v>726.8250614170374</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="Y16" t="n">
-        <v>506.0324822735073</v>
+        <v>554.6108700904385</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,28 +5498,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5601,7 +5601,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>576.0756695821906</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>407.1394866542837</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>257.0228472419478</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>109.1097536595547</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5680,13 +5680,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>1275.130855347408</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>985.7136853104477</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>757.7241344124303</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>757.7241344124303</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805457</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5753,49 +5753,49 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,13 +5817,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5832,19 +5832,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>879.2482765610115</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C22" t="n">
-        <v>710.3120936331046</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D22" t="n">
-        <v>560.1954542207689</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383757</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1288.886292289269</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1288.886292289269</v>
+        <v>963.6521305054454</v>
       </c>
       <c r="V22" t="n">
-        <v>1288.886292289269</v>
+        <v>963.6521305054454</v>
       </c>
       <c r="W22" t="n">
-        <v>1288.886292289269</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="X22" t="n">
-        <v>1060.896741391251</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="Y22" t="n">
-        <v>1060.896741391251</v>
+        <v>674.2349604684848</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5972,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N24" t="n">
-        <v>2041.248044820708</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O24" t="n">
-        <v>2320.788110039405</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6178,19 +6178,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765184</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706316</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336711</v>
+        <v>241.9805482336713</v>
       </c>
       <c r="X25" t="n">
-        <v>241.9805482336711</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>241.9805482336711</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6251,22 +6251,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>406.8543143225552</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C28" t="n">
-        <v>406.8543143225552</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D28" t="n">
-        <v>256.7376749102195</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E28" t="n">
-        <v>256.7376749102195</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123424</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123424</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>1098.712528333286</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>809.295358296325</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>809.295358296325</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="Y28" t="n">
-        <v>588.5027791527949</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,19 +6452,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6485,7 +6485,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.874819421525</v>
+        <v>545.5472734739661</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749889</v>
+        <v>545.5472734739661</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440241</v>
+        <v>451.1914993430013</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430017</v>
+        <v>451.1914993430013</v>
       </c>
       <c r="F31" t="n">
-        <v>360.062417126462</v>
+        <v>360.0624171264618</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>247.6479607276533</v>
       </c>
       <c r="H31" t="n">
         <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
         <v>369.0876362933502</v>
@@ -6631,7 +6631,7 @@
         <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6640,7 +6640,7 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899271</v>
@@ -6649,22 +6649,22 @@
         <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1242.351577257231</v>
       </c>
       <c r="W31" t="n">
-        <v>1136.336733737483</v>
+        <v>1008.695272501641</v>
       </c>
       <c r="X31" t="n">
-        <v>1041.794132832553</v>
+        <v>836.4665868849942</v>
       </c>
       <c r="Y31" t="n">
-        <v>876.7624189703938</v>
+        <v>671.4348730228349</v>
       </c>
     </row>
     <row r="32">
@@ -6677,28 +6677,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514081</v>
@@ -6710,19 +6710,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F33" t="n">
         <v>358.2718071316295</v>
@@ -6774,19 +6774,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6813,7 +6813,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,7 +6889,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859416</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M36" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
         <v>398.9545963083204</v>
@@ -7090,13 +7090,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7129,7 +7129,7 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
@@ -7138,7 +7138,7 @@
         <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,40 +7163,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7248,19 +7248,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7287,7 +7287,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982974</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,10 +7351,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823804</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514099</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L42" t="n">
-        <v>880.8106280646857</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.130761344647</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N42" t="n">
-        <v>1517.99338900868</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7524,7 +7524,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
         <v>559.344147222967</v>
@@ -7789,28 +7789,28 @@
         <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,13 +8298,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>199.7396287231155</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,28 +9717,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>412.6002929596431</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9954,28 +9954,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298389</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928343</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720756</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11139,28 +11139,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>85.30006332127834</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>161.6567489736615</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,10 +23422,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>5.59800616188511</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>57.5690198583202</v>
+        <v>22.06157500286772</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23707,7 +23707,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>133.647312445655</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23938,16 +23938,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338569</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>13.61788257244132</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>285.7585771924304</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>36.51615797628598</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>82.3938331833856</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>136.4094987750329</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801203</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>104.9546950845494</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>76.90922386459894</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26317,10 +26317,10 @@
         <v>307890.6636991063</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="E2" t="n">
-        <v>293271.7948032814</v>
+        <v>293271.7948032813</v>
       </c>
       <c r="F2" t="n">
         <v>293271.7948032814</v>
@@ -26329,22 +26329,22 @@
         <v>293271.7948032814</v>
       </c>
       <c r="H2" t="n">
-        <v>293271.7948032815</v>
+        <v>293271.7948032814</v>
       </c>
       <c r="I2" t="n">
         <v>293271.7948032814</v>
       </c>
       <c r="J2" t="n">
-        <v>293271.7948032814</v>
+        <v>293271.7948032815</v>
       </c>
       <c r="K2" t="n">
-        <v>305116.6030089529</v>
+        <v>305116.6030089522</v>
       </c>
       <c r="L2" t="n">
         <v>307890.6636991063</v>
       </c>
       <c r="M2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="N2" t="n">
         <v>307890.6636991063</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284569</v>
+        <v>44162.60530284554</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086685</v>
+        <v>10342.90680086694</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284572</v>
+        <v>44162.60530284566</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007465</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007497</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007493</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.73165600749</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007503</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020404</v>
+        <v>26081.3541702041</v>
       </c>
       <c r="L4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732794</v>
+        <v>30335.51889732802</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732799</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732796</v>
       </c>
     </row>
     <row r="5">
@@ -26479,37 +26479,37 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022278</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="N5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="O5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-512853.3422947684</v>
+        <v>-512853.3422947682</v>
       </c>
       <c r="C6" t="n">
-        <v>77114.53691977597</v>
+        <v>77114.536919776</v>
       </c>
       <c r="D6" t="n">
-        <v>77114.53691977603</v>
+        <v>77114.53691977615</v>
       </c>
       <c r="E6" t="n">
-        <v>-331792.2992783388</v>
+        <v>-331889.7584043111</v>
       </c>
       <c r="F6" t="n">
-        <v>193367.7371985573</v>
+        <v>193270.2780725852</v>
       </c>
       <c r="G6" t="n">
-        <v>193367.7371985573</v>
+        <v>193270.2780725851</v>
       </c>
       <c r="H6" t="n">
-        <v>193367.7371985573</v>
+        <v>193270.2780725851</v>
       </c>
       <c r="I6" t="n">
-        <v>193367.7371985574</v>
+        <v>193270.2780725851</v>
       </c>
       <c r="J6" t="n">
-        <v>16944.51800596435</v>
+        <v>16847.05887999228</v>
       </c>
       <c r="K6" t="n">
-        <v>138244.4350056804</v>
+        <v>138225.9412677454</v>
       </c>
       <c r="L6" t="n">
-        <v>169497.1321808862</v>
+        <v>169497.132180886</v>
       </c>
       <c r="M6" t="n">
-        <v>45039.02374791563</v>
+        <v>45039.02374791581</v>
       </c>
       <c r="N6" t="n">
-        <v>179840.0389817529</v>
+        <v>179840.0389817528</v>
       </c>
       <c r="O6" t="n">
-        <v>179840.0389817529</v>
+        <v>179840.0389817528</v>
       </c>
       <c r="P6" t="n">
         <v>135677.4336789072</v>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
@@ -26722,10 +26722,10 @@
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26750,31 +26750,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108356</v>
+        <v>12.92863350108353</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27039,13 +27039,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>392.2706531812534</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>247.6729196347434</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>16.63754732114094</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>91.64776835319847</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>179.0352479996714</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>195.3845329600078</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>199.517280534536</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>277.0062774114811</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27856,16 +27856,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>31.19651589842817</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>186.8447983573889</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>57.59905862404024</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,13 +28065,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>38.22219630222452</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.389288684094936e-12</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="32">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33181,40 +33181,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,10 +33254,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
@@ -33266,7 +33266,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724845</v>
@@ -33275,10 +33275,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33290,7 +33290,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33354,7 +33354,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33366,10 +33366,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33588,10 +33588,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33825,10 +33825,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34062,10 +34062,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34129,40 +34129,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,10 +34202,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
@@ -34214,7 +34214,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
@@ -34223,10 +34223,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34238,7 +34238,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34302,7 +34302,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34314,10 +34314,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
@@ -35504,10 +35504,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>287.7526615081896</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35969,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>745.7948663576559</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36613,10 +36613,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403579</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37233,16 +37233,16 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N34" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>642.8663885318336</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37470,16 +37470,16 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221134</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37707,16 +37707,16 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415096</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>334.5577682773026</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
